--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3836.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3836.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.347108851817176</v>
+        <v>3.783183336257935</v>
       </c>
       <c r="B1">
-        <v>2.246023166410316</v>
+        <v>4.130315780639648</v>
       </c>
       <c r="C1">
-        <v>4.838557458474445</v>
+        <v>7.863772869110107</v>
       </c>
       <c r="D1">
-        <v>3.298272884786606</v>
+        <v>8.045058250427246</v>
       </c>
       <c r="E1">
-        <v>1.01567023576895</v>
+        <v>5.663721084594727</v>
       </c>
     </row>
   </sheetData>
